--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_domainBox.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/create_domainBox.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1015,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
